--- a/virtualGameServer/src/main/resources/excel/shop/ConditionTestRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/shop/ConditionTestRes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>int</t>
   </si>
@@ -28,10 +28,7 @@
     <t>conditions</t>
   </si>
   <si>
-    <t>{"conditionList":[{"@type": "roleLevel"}]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, "minLevel":0 , "maxLevel":20 </t>
+    <t>{"conditionList":[{"@type": "roleLevel", "minLevel":0}]}</t>
   </si>
 </sst>
 </file>
@@ -41,8 +38,8 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
@@ -60,13 +57,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -91,6 +81,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,14 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +103,76 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,78 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +216,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,32 +449,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,21 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -525,6 +492,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,10 +530,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,16 +542,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,115 +560,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="33.625" style="3" customWidth="1"/>
@@ -1038,15 +1035,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/virtualGameServer/src/main/resources/excel/shop/ConditionTestRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/shop/ConditionTestRes.xlsx
@@ -28,7 +28,7 @@
     <t>conditions</t>
   </si>
   <si>
-    <t>{"conditionList":[{"@type": "roleLevel", "minLevel":0}]}</t>
+    <t>{"conditionList":[{"@type": "roleLevel", "minLevel":15}]}</t>
   </si>
 </sst>
 </file>
@@ -38,8 +38,8 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
@@ -57,9 +57,137 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,134 +200,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -216,187 +216,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,45 +425,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -471,24 +432,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +451,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -522,6 +489,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -530,10 +530,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,31 +542,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,100 +575,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="33.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="61.625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/virtualGameServer/src/main/resources/excel/shop/ConditionTestRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/shop/ConditionTestRes.xlsx
@@ -25,10 +25,10 @@
     <t>key</t>
   </si>
   <si>
-    <t>conditions</t>
+    <t>conditionList</t>
   </si>
   <si>
-    <t>{"conditionList":[{"@type": "roleLevel", "minLevel":15}]}</t>
+    <t>[{"_type": "roleLevel", "minLevel":15}]</t>
   </si>
 </sst>
 </file>
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
@@ -64,8 +64,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -73,43 +126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +150,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -140,7 +165,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,23 +180,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,29 +200,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -216,187 +216,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,37 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,25 +455,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -504,6 +471,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +507,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -530,10 +530,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,133 +542,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
